--- a/media/model_dict.compile.xlsx
+++ b/media/model_dict.compile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C77FF1-3CAC-4BE3-84F6-3B7DF5059E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9260AE-217C-497A-A295-FD78AFB5B216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -82,12 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
-This should be between 0 and 1. (Ex. 0.999, 0.9999)
-Defaults to 0.9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>topk_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +167,12 @@
     <t>Optimization level in the compiler. 
 If optimization level is high, NPU inference 
 could be faster, but it takes more time for compiling. (Recommend: 3~6.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentile used for the quantization method "Percentile" and "MaxPercentile".
+This should be between 0 and 1. (Ex. 0.999, 0.9999).
+Defaults to 0.9999.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +546,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -619,73 +619,73 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/media/model_dict.compile.xlsx
+++ b/media/model_dict.compile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\Manual\SDK\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9260AE-217C-497A-A295-FD78AFB5B216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7EF45-280B-44B8-AD64-72BCAE61FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>model_nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calib_txt_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,11 +121,6 @@
   <si>
     <t>If true, it compiles the given model with random calibration data.
 This is just used to check if the model is compilable without making a calibration data.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.txt file contain calibration dataset list, which results from "make_calib".
-Calibration dataset should be .npy files with np.float32 dtype.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,12 +166,31 @@
 Defaults to 0.9999.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>calib_data_path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>A path to the calibration dataset. It can be either of a path to the text file (or json) containing the paths to the pre-processed numpy files or a directory containing the pre-processed numpy files.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_offload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use CPU offloading for NPU inference if True. Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +203,21 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -219,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,9 +254,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +278,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,117 +606,128 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/media/model_dict.compile.xlsx
+++ b/media/model_dict.compile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\Manual\SDK\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7EF45-280B-44B8-AD64-72BCAE61FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E332D-276B-44CA-844B-5FCB0A6FC01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,13 +137,6 @@
     <t>It is used for quantization method "maxpercentile". Defaults to 0.
 The larger this value is, the more data is used for calibration.
 This should be between 0 and 1, but using a value of 0.01 or less is recommended.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model nickname used in qubee. 
-qubee stores previous optimization information to 
-recompile same models faster. 
-qubee finds the previously compiled result with nickname.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +177,18 @@
   <si>
     <t>Use CPU offloading for NPU inference if True. Defaults to False.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string (optional)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model nickname used in qubee. It is used in qubee to facilitate quicker recompilation of the same models.
+Qubee stores prior optimization information under this nickname, enabling it to locate and utilize the previously compiled results for faster processing.
+It is auto-generated from the model's base name, if not provided.
+For instance, a model "/workspace/onnx/resnet50.onnx" results in "resnet50".
+If not derivable, "temporary" is the default nickname.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -244,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,37 +606,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -650,7 +658,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -683,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -694,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -721,13 +729,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/media/model_dict.compile.xlsx
+++ b/media/model_dict.compile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\Manual\SDK\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7E332D-276B-44CA-844B-5FCB0A6FC01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB794E62-48F1-44AF-AB4E-21D54AE53F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="6090" yWindow="1440" windowWidth="17610" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,11 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Use multi-channel quantization if True. Defaults to False.
-If is_quant_ch is set to True, only "Max" and "MaxPercentile" are supported.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>optimization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,46 +106,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If true, create the "sampleInOut" folder in the current directory and store the input and output binary files in it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>use_random_calib</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If true, it compiles the given model with random calibration data.
-This is just used to check if the model is compilable without making a calibration data.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Filename of the resulting .mxq.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quantization method to determine the scale parameter in the quantization.
-Currently, "Max", "Percentile", "MaxPercentile" are supported.
-Defaults to "Percentile".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>It is used for quantization method "maxpercentile". Defaults to 0.
 The larger this value is, the more data is used for calibration.
 This should be between 0 and 1, but using a value of 0.01 or less is recommended.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If true, it compiles the model with optimization process. 
-If false, qubee uses 
-previous optimization information when stored in previous compiling. 
-(Nickname should be the same.) It must be set to True on the first compile.
-Defaults to True.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimization level in the compiler. 
-If optimization level is high, NPU inference 
-could be faster, but it takes more time for compiling. (Recommend: 3~6.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,6 +155,135 @@
 For instance, a model "/workspace/onnx/resnet50.onnx" results in "resnet50".
 If not derivable, "temporary" is the default nickname.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantization method to determine the scale parameter in the quantization.
+Currently, "Max", "Percentile", "MaxPercentile" and "KL" are supported.
+Defaults to "Percentile".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smooth_factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use multi-channel quantization if True. Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quant_output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_useadaquant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_weightDeltaLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_biasDeltaLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_weightScaleLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_biasScaleLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_actScaleLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_batchSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaq_epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoothing factor that is required for Gaussian kernel construction on KL divergence estimation.
+Defaults to 1.6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, it compiles the model with optimization process. 
+If False, qubee uses 
+previous optimization information when stored in previous compiling. 
+(Nickname should be the same.) It must be set to True on the first compile.
+Defaults to True.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimization level in the compiler. 
+If optimization level is high, NPU inference 
+could be faster, but it takes more time for compiling. (Recommend: 3~6.)
+Defaults to 5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, it compiles the given model with random calibration data.
+This is just used to check if the model is compilable without making a calibration data.
+Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, create the "sampleInOut" folder in the current directory and store the input and output binary files in it.
+Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, enable the finetuning with AdaQuant after quantization.
+Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning weight quantization scale of AdaQuant.
+Defaults to 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning bias quantization scale of AdaQuant.
+Defaults to 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning activation quantization scale of AdaQuant.
+Defaults to 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch size for running AdaQuant.
+Defaults to 16.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epochs for repeating AdaQuant update.
+Defaults to 10.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning weight delta(weight update) of AdaQuant. (Recommend: 1e-6 ~ 5e-5)
+Defaults to 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning rate for finetuning bias delta(bias update) of AdaQuant. (Recommend: weightDeltaLR/10 ~ weightDeltaLR/2)
+Defaults to 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantization method that applied to the output layer. "layer", "ch" and "sigmoid" options are available.
+If "layer", per-layer quantization is applied to the output layer. If is_quant_ch is true, then the computed quantization scale for each channel of the output layer will be merged into single value.
+If "ch", per-channel quantization is applied to the output layer. This option is valid only when is_quant_ch is true.
+If "sigmoid", assign quantization scale that computed with sigmoid function.
+Defaults to "layer".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -582,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,13 +703,13 @@
     </row>
     <row r="2" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
@@ -633,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -647,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -658,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -669,73 +764,183 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/media/model_dict.compile.xlsx
+++ b/media/model_dict.compile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB794E62-48F1-44AF-AB4E-21D54AE53F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458A124-1F2D-47E4-BB28-B5F1A5F4BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1440" windowWidth="17610" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,10 +133,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>A path to the calibration dataset. It can be either of a path to the text file (or json) containing the paths to the pre-processed numpy files or a directory containing the pre-processed numpy files.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cpu_offload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,6 +280,10 @@
 If "sigmoid", assign quantization scale that computed with sigmoid function.
 Defaults to "layer".</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A path to the calibration dataset. It can be either of a path to the text (or json) file containing the paths to the pre-processed numpy files or a directory containing the pre-processed numpy files.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -381,9 +381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -769,13 +769,13 @@
     </row>
     <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="66" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -830,117 +830,117 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
